--- a/Parameter Testing.xlsx
+++ b/Parameter Testing.xlsx
@@ -784,7 +784,7 @@
         <v>0.787866652011871</v>
       </c>
       <c r="D21" s="10">
-        <v>0.846000015735626</v>
+        <v>0.859600007534027</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
